--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPM_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1300263503329071</v>
+        <v>-0.1824983152294041</v>
       </c>
       <c r="D2">
-        <v>0.8965507690962431</v>
+        <v>0.8562755077668034</v>
       </c>
       <c r="E2">
         <v>0.8362282252548593</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.4236370331295456</v>
+        <v>0.529181002213955</v>
       </c>
       <c r="D3">
-        <v>0.6718486243579451</v>
+        <v>0.6001181404730382</v>
       </c>
       <c r="E3">
         <v>0.8362282252548593</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.03813594527748374</v>
+        <v>-0.03453432281882979</v>
       </c>
       <c r="D4">
-        <v>0.9695808026459323</v>
+        <v>0.9726530265765045</v>
       </c>
       <c r="E4">
         <v>0.8362282252548593</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.67637187723932</v>
+        <v>-1.523546762671858</v>
       </c>
       <c r="D5">
-        <v>0.09372740635581089</v>
+        <v>0.136870152946527</v>
       </c>
       <c r="E5">
         <v>0.8362282252548593</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5061920969501195</v>
+        <v>0.576336479316639</v>
       </c>
       <c r="D6">
-        <v>0.6127439470422669</v>
+        <v>0.5681838106766759</v>
       </c>
       <c r="E6">
         <v>0.8390761309111411</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.07723727955252289</v>
+        <v>0.09597620465980004</v>
       </c>
       <c r="D7">
-        <v>0.9384378518928118</v>
+        <v>0.9241029518723634</v>
       </c>
       <c r="E7">
         <v>0.8390761309111411</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.27232703259169</v>
+        <v>-1.684867181147551</v>
       </c>
       <c r="D8">
-        <v>0.2033156553661093</v>
+        <v>0.1011733945798423</v>
       </c>
       <c r="E8">
         <v>0.8390761309111411</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.4008602591936692</v>
+        <v>-0.3441934839789854</v>
       </c>
       <c r="D9">
-        <v>0.6885400060139393</v>
+        <v>0.7328205689259306</v>
       </c>
       <c r="E9">
         <v>0.8274686124338932</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.90568593826612</v>
+        <v>-1.943634537787615</v>
       </c>
       <c r="D10">
-        <v>0.05674781664203654</v>
+        <v>0.0602540882740632</v>
       </c>
       <c r="E10">
         <v>0.8274686124338932</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.365643840212612</v>
+        <v>-1.429762543870582</v>
       </c>
       <c r="D11">
-        <v>0.1721117326139501</v>
+        <v>0.161910506926948</v>
       </c>
       <c r="E11">
         <v>0.8370706338849531</v>
